--- a/Wire Harness/Connector Profile.xlsx
+++ b/Wire Harness/Connector Profile.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franklin.320\Buckeye Current\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14140" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="25620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
   <si>
     <t>Connector Schematic No.</t>
   </si>
@@ -192,12 +197,6 @@
     <t>Thorttle Enable</t>
   </si>
   <si>
-    <t>Microfit</t>
-  </si>
-  <si>
-    <t>Coolant Pump 1</t>
-  </si>
-  <si>
     <t>Coolant Pump 2</t>
   </si>
   <si>
@@ -264,15 +263,6 @@
     <t>Pheonix Contact</t>
   </si>
   <si>
-    <t>USB</t>
-  </si>
-  <si>
-    <t>2-Circuit</t>
-  </si>
-  <si>
-    <t>6-Circuit</t>
-  </si>
-  <si>
     <t>Number of Positions</t>
   </si>
   <si>
@@ -291,9 +281,6 @@
     <t>Vendor Part No.</t>
   </si>
   <si>
-    <t>Not a connector?</t>
-  </si>
-  <si>
     <t>NTC M12-H</t>
   </si>
   <si>
@@ -307,13 +294,34 @@
   </si>
   <si>
     <t xml:space="preserve">AMP 114-18063-076 </t>
+  </si>
+  <si>
+    <t>43025-0200</t>
+  </si>
+  <si>
+    <t>43025-0400</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>Microfit 3.0 Receptable Housing, Dual Row, 2 Circuits, Halogen Free</t>
+  </si>
+  <si>
+    <t>Microfit 3.0 Receptable Housing, Dual Row, 4 Circuits, Halogen Free</t>
+  </si>
+  <si>
+    <t>Coolant Pump 1 (Motor Side)</t>
+  </si>
+  <si>
+    <t>USB?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -416,7 +424,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -430,6 +438,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -478,6 +489,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -806,22 +825,22 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="34.5" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="56.625" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -835,16 +854,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -858,13 +877,13 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2">
+        <v>76</v>
+      </c>
+      <c r="E2" s="7">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -878,13 +897,13 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3">
+        <v>76</v>
+      </c>
+      <c r="E3" s="7">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -898,13 +917,13 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4">
+        <v>76</v>
+      </c>
+      <c r="E4" s="7">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -914,14 +933,17 @@
       <c r="B5" t="s">
         <v>41</v>
       </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
       <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5">
+        <v>92</v>
+      </c>
+      <c r="E5" s="7">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -935,13 +957,13 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6">
+        <v>76</v>
+      </c>
+      <c r="E6" s="7">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -955,13 +977,13 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7">
+        <v>76</v>
+      </c>
+      <c r="E7" s="7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -972,16 +994,16 @@
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8">
+        <v>76</v>
+      </c>
+      <c r="E8" s="7">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -992,16 +1014,16 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9">
+        <v>76</v>
+      </c>
+      <c r="E9" s="7">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1012,16 +1034,16 @@
         <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10">
+        <v>76</v>
+      </c>
+      <c r="E10" s="7">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1032,16 +1054,16 @@
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11">
+        <v>76</v>
+      </c>
+      <c r="E11" s="7">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1051,14 +1073,17 @@
       <c r="B12" t="s">
         <v>50</v>
       </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
       <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12">
+        <v>92</v>
+      </c>
+      <c r="E12" s="7">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1068,6 +1093,18 @@
       <c r="B13" t="s">
         <v>51</v>
       </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
@@ -1076,6 +1113,18 @@
       <c r="B14" t="s">
         <v>52</v>
       </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
@@ -1085,16 +1134,16 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15">
+        <v>81</v>
+      </c>
+      <c r="E15" s="7">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1105,16 +1154,16 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16">
+        <v>81</v>
+      </c>
+      <c r="E16" s="7">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1127,6 +1176,15 @@
       <c r="C17" t="s">
         <v>90</v>
       </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
@@ -1135,16 +1193,25 @@
       <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="7">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1152,7 +1219,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1160,16 +1227,19 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
+        <v>92</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1177,16 +1247,19 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
+        <v>92</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1194,15 +1267,15 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23">
+        <v>81</v>
+      </c>
+      <c r="E23" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1211,10 +1284,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1222,15 +1295,15 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25">
+        <v>81</v>
+      </c>
+      <c r="E25" s="7">
         <v>63</v>
       </c>
     </row>
@@ -1239,19 +1312,19 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26">
+        <v>76</v>
+      </c>
+      <c r="E26" s="7">
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1259,16 +1332,19 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27">
+        <v>92</v>
+      </c>
+      <c r="E27" s="7">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1276,13 +1352,16 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="E28" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1290,19 +1369,19 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1">
         <v>1542761</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29">
+        <v>78</v>
+      </c>
+      <c r="E29" s="7">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1310,19 +1389,19 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1">
         <v>1542761</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30">
+        <v>78</v>
+      </c>
+      <c r="E30" s="7">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1330,19 +1409,19 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1">
         <v>1542761</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31">
+        <v>78</v>
+      </c>
+      <c r="E31" s="7">
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1350,19 +1429,19 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32" s="1">
         <v>1542761</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32">
+        <v>78</v>
+      </c>
+      <c r="E32" s="7">
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1370,19 +1449,19 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1">
         <v>1542761</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33">
+        <v>78</v>
+      </c>
+      <c r="E33" s="7">
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1390,22 +1469,22 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" s="1">
         <v>1542761</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34">
+        <v>78</v>
+      </c>
+      <c r="E34" s="7">
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="C35" s="3"/>
       <c r="F35" s="6"/>
     </row>

--- a/Wire Harness/Connector Profile.xlsx
+++ b/Wire Harness/Connector Profile.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franklin.320\Buckeye Current\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="25620" tabRatio="500"/>
+    <workbookView xWindow="1320" yWindow="200" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
   <si>
     <t>Connector Schematic No.</t>
   </si>
@@ -321,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,8 +374,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -442,7 +439,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -464,6 +461,7 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -485,6 +483,7 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -825,22 +824,22 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C20" sqref="C20:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="22.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="56.625" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="56.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1221,6 +1220,18 @@
       <c r="B20" t="s">
         <v>57</v>
       </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="7">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
@@ -1484,7 +1495,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="16">
       <c r="C35" s="3"/>
       <c r="F35" s="6"/>
     </row>

--- a/Wire Harness/Connector Profile.xlsx
+++ b/Wire Harness/Connector Profile.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franklin.320\Wiring Harness\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="200" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
   <si>
     <t>Connector Schematic No.</t>
   </si>
@@ -117,21 +122,6 @@
     <t>CN-028</t>
   </si>
   <si>
-    <t>CN-029</t>
-  </si>
-  <si>
-    <t>CN-030</t>
-  </si>
-  <si>
-    <t>CN-031</t>
-  </si>
-  <si>
-    <t>CN-032</t>
-  </si>
-  <si>
-    <t>CN-033</t>
-  </si>
-  <si>
     <t>Destination</t>
   </si>
   <si>
@@ -204,9 +194,6 @@
     <t>Noise Maker</t>
   </si>
   <si>
-    <t>Front Display</t>
-  </si>
-  <si>
     <t>Big Plug</t>
   </si>
   <si>
@@ -219,24 +206,6 @@
     <t>ABS</t>
   </si>
   <si>
-    <t>BIM 1</t>
-  </si>
-  <si>
-    <t>BIM 2</t>
-  </si>
-  <si>
-    <t>BIM 3</t>
-  </si>
-  <si>
-    <t>BIM 4</t>
-  </si>
-  <si>
-    <t>BIM 5</t>
-  </si>
-  <si>
-    <t>BIM 6</t>
-  </si>
-  <si>
     <t>D 261 205 337-01</t>
   </si>
   <si>
@@ -309,14 +278,26 @@
     <t>Coolant Pump 1 (Motor Side)</t>
   </si>
   <si>
-    <t>USB?</t>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>E STOP</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>BIMBO1</t>
+  </si>
+  <si>
+    <t>BIMBO2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -374,10 +355,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -439,7 +418,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -461,7 +440,6 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -483,7 +461,6 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -821,30 +798,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:F20"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="56.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="56.625" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -853,16 +830,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -870,19 +847,19 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E2" s="7">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -890,19 +867,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E3" s="7">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -910,19 +887,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E4" s="7">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -930,19 +907,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -950,19 +927,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E6" s="7">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -970,19 +947,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E7" s="7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -990,19 +967,19 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1010,19 +987,19 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1030,19 +1007,19 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E10" s="7">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1050,241 +1027,242 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E13" s="7">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E14" s="7">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E15" s="7">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E16" s="7">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E17" s="7">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E19" s="7">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E20" s="7">
         <v>3</v>
       </c>
-      <c r="F20" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E22" s="7">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E23" s="7">
         <v>3</v>
@@ -1292,27 +1270,27 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>96</v>
+        <v>85</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
         <v>62</v>
       </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E25" s="7">
         <v>63</v>
@@ -1320,184 +1298,126 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E26" s="7">
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="7">
         <v>2</v>
       </c>
-      <c r="F27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="7">
-        <v>9</v>
+      <c r="F28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1542761</v>
-      </c>
-      <c r="D29" t="s">
-        <v>78</v>
+        <v>59</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E29" s="7">
-        <v>5</v>
-      </c>
-      <c r="F29" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C30" s="1">
         <v>1542761</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E30" s="7">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1">
         <v>1542761</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E31" s="7">
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1542761</v>
-      </c>
-      <c r="D32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="7">
-        <v>5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1542761</v>
-      </c>
-      <c r="D33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="7">
-        <v>5</v>
-      </c>
-      <c r="F33" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1542761</v>
-      </c>
-      <c r="D34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="7">
-        <v>5</v>
-      </c>
-      <c r="F34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16">
-      <c r="C35" s="3"/>
-      <c r="F35" s="6"/>
+      <c r="A34" s="2"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="C36" s="3"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
